--- a/QALegend/src/main/java/TestData/TestData_Excel.xlsx
+++ b/QALegend/src/main/java/TestData/TestData_Excel.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8C411913-35E5-47B3-901B-60197D783EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{592A3810-567F-45AC-8459-AF5841F0E417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8550" windowHeight="3120" xr2:uid="{48630F50-3C24-4B6D-8544-270EABDA4E35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14840" windowHeight="6930" xr2:uid="{48630F50-3C24-4B6D-8544-270EABDA4E35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="Events" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -21,18 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Automation</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>This is Test Automation</t>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Trvm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Test Automation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation </t>
   </si>
 </sst>
 </file>
@@ -384,31 +390,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12628C2A-3B28-4EDD-99E0-F6987AD658BD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.90625" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
